--- a/VersionColab/estadisticas_gusanos_WT.xlsx
+++ b/VersionColab/estadisticas_gusanos_WT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,26 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mad</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cv_mediana_v1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cv_mediana_v2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +498,18 @@
       <c r="E2" t="n">
         <v>0.6168135350206881</v>
       </c>
+      <c r="F2" t="n">
+        <v>11699.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8148.381792906788</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.784622091073704</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5464678286437388</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +529,18 @@
       <c r="E3" t="n">
         <v>0.6195058934000711</v>
       </c>
+      <c r="F3" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1495.945638472152</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.674548581255374</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6431408591883716</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +560,18 @@
       <c r="E4" t="n">
         <v>1.013050184412352</v>
       </c>
+      <c r="F4" t="n">
+        <v>14370.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7086.838604456777</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.402691857548905</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.184891925172509</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +591,18 @@
       <c r="E5" t="n">
         <v>0.2901389073954709</v>
       </c>
+      <c r="F5" t="n">
+        <v>1339.25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1007.428207474557</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3194394752534288</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2402929534823033</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +622,18 @@
       <c r="E6" t="n">
         <v>0.7330332796512616</v>
       </c>
+      <c r="F6" t="n">
+        <v>5786</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3934.826287913867</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.299057027391109</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8834365262491845</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +653,18 @@
       <c r="E7" t="n">
         <v>0.3160675600984499</v>
       </c>
+      <c r="F7" t="n">
+        <v>2420</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1878.457010846598</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3481763901877563</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2702621409749799</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +684,18 @@
       <c r="E8" t="n">
         <v>0.4135278084466505</v>
       </c>
+      <c r="F8" t="n">
+        <v>5328.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4136.460189630629</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5711146838156484</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4433505026399389</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +715,18 @@
       <c r="E9" t="n">
         <v>0.369466377631442</v>
       </c>
+      <c r="F9" t="n">
+        <v>5549.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3917.035061291801</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5885565807614805</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4154242296417224</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +746,18 @@
       <c r="E10" t="n">
         <v>0.5212368296074971</v>
       </c>
+      <c r="F10" t="n">
+        <v>7103.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4829.576726781998</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8075829922692133</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5490651121853113</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +777,18 @@
       <c r="E11" t="n">
         <v>0.7115034462984677</v>
       </c>
+      <c r="F11" t="n">
+        <v>6539.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4564.932230778749</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.250741130343311</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.873086397777326</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +808,18 @@
       <c r="E12" t="n">
         <v>0.9404018518837048</v>
       </c>
+      <c r="F12" t="n">
+        <v>2613</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1451.467571916984</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.591352009744214</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8839631984878101</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +839,18 @@
       <c r="E13" t="n">
         <v>0.3080466570452799</v>
       </c>
+      <c r="F13" t="n">
+        <v>8433</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6929.682769295184</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4037826191046205</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3318019042037436</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -705,6 +869,18 @@
       </c>
       <c r="E14" t="n">
         <v>0.6476298967032762</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2842.25</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1853.994074241255</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.322899697463346</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.86292486583256</v>
       </c>
     </row>
   </sheetData>
